--- a/data/ESG_Premise_Template.xlsx
+++ b/data/ESG_Premise_Template.xlsx
@@ -22,156 +22,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="480">
   <si>
     <t>Entity</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Premise</t>
+  </si>
+  <si>
+    <t>Group (Maybank Malaysia only)</t>
+  </si>
+  <si>
+    <t>ESG Role</t>
+  </si>
+  <si>
+    <t>Utility Types</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Genset</t>
+  </si>
+  <si>
+    <t>Extinguisher</t>
+  </si>
+  <si>
+    <t>Refrigerant</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Air Travel</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Maybank Academy</t>
+  </si>
+  <si>
+    <t>Strategic Buildings</t>
+  </si>
+  <si>
+    <t>Maker 1</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>awafi@maybank.com</t>
+  </si>
+  <si>
+    <t>MONT KIARA</t>
+  </si>
+  <si>
+    <t>SRI DAMANSARA ZONE</t>
+  </si>
+  <si>
+    <t>Maker 2</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Maker 3</t>
+  </si>
+  <si>
+    <t>Checker 1</t>
+  </si>
+  <si>
+    <t>Checker 2</t>
+  </si>
+  <si>
+    <t>System Admin</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Labuan</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>Kunming</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t>Maybank</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Premise</t>
-  </si>
-  <si>
-    <t>Group (Maybank Malaysia only)</t>
-  </si>
-  <si>
-    <t>ESG Role</t>
-  </si>
-  <si>
-    <t>Utility Types</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Genset</t>
-  </si>
-  <si>
-    <t>Extinguisher</t>
-  </si>
-  <si>
-    <t>Refrigerant</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Air Travel</t>
-  </si>
-  <si>
-    <t>Mileage</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Printing</t>
-  </si>
-  <si>
-    <t>amirasyraf.mohdnor@maybank.com</t>
-  </si>
-  <si>
-    <t>Maybank Academy</t>
-  </si>
-  <si>
-    <t>Strategic Buildings</t>
-  </si>
-  <si>
-    <t>Maker 1</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>awafi@maybank.com</t>
-  </si>
-  <si>
-    <t>MONT KIARA</t>
-  </si>
-  <si>
-    <t>SRI DAMANSARA ZONE</t>
-  </si>
-  <si>
-    <t>Maker 2</t>
-  </si>
-  <si>
-    <t>Maker 3</t>
-  </si>
-  <si>
-    <t>Checker 1</t>
-  </si>
-  <si>
-    <t>Checker 2</t>
-  </si>
-  <si>
-    <t>System Admin</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Labuan</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Shanghai</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>Shenzhen</t>
-  </si>
-  <si>
-    <t>Kunming</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>USA</t>
   </si>
   <si>
     <t>Etiqa Group</t>
@@ -1488,7 +1488,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
       <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -1985,33 +1984,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2029,122 +2026,120 @@
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="H5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="N5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="16" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>23</v>
-      </c>
       <c r="I7" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -17070,13 +17065,10 @@
       <formula1>DATA_PREMISES</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A6"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17096,32 +17088,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -18127,97 +18119,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -19224,7 +19216,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -20246,7 +20238,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -20271,7 +20263,7 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -21357,7 +21349,7 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -21572,7 +21564,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -23347,7 +23339,7 @@
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">

--- a/data/ESG_Premise_Template.xlsx
+++ b/data/ESG_Premise_Template.xlsx
@@ -22,11 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="480">
   <si>
     <t>Entity</t>
   </si>
   <si>
+    <t>Maybank</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>Printing</t>
   </si>
   <si>
+    <t>amirasyraf.mohdnor@maybank.com</t>
+  </si>
+  <si>
     <t>Maybank Academy</t>
   </si>
   <si>
@@ -102,9 +108,6 @@
     <t>Maker 2</t>
   </si>
   <si>
-    <t>Disabled</t>
-  </si>
-  <si>
     <t>Maker 3</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>Maybank</t>
   </si>
   <si>
     <t>Etiqa Group</t>
@@ -1488,6 +1488,7 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11.0"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -1984,31 +1985,33 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="27.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2026,120 +2029,122 @@
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="B6" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -17065,10 +17070,13 @@
       <formula1>DATA_PREMISES</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A6"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17088,32 +17096,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -18119,97 +18127,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -19216,7 +19224,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -20238,7 +20246,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -20263,7 +20271,7 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -21349,7 +21357,7 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -21564,7 +21572,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -23339,7 +23347,7 @@
     </row>
     <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
